--- a/fuentes/contenidos/grado11/guion01/SolicitudGrafica MA_11_01_CO_REC90.xlsx
+++ b/fuentes/contenidos/grado11/guion01/SolicitudGrafica MA_11_01_CO_REC90.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Documents\GitHub\Matematicas\fuentes\contenidos\grado11\guion01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8955" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7650" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
     <definedName name="Formato">'Solicitud gráfica'!$L$2:$L$3</definedName>
     <definedName name="Ubicación">'Solicitud gráfica'!$M$2:$M$6</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1569,6 +1574,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1667,7 +1673,6 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -1774,7 +1779,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" sel="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1793,16 +1798,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>55562</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4619625</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>485775</xdr:rowOff>
+      <xdr:rowOff>541337</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1825,7 +1830,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16375063" y="2119313"/>
+          <a:off x="13811250" y="2174875"/>
           <a:ext cx="4524375" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1837,16 +1842,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3552826</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>981075</xdr:rowOff>
+      <xdr:rowOff>1012825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1869,7 +1874,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16375063" y="2746375"/>
+          <a:off x="13954126" y="2778125"/>
           <a:ext cx="3314700" cy="981075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1881,16 +1886,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>277813</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>7937</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>53975</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3411538</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>1266825</xdr:rowOff>
+      <xdr:rowOff>1274762</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1913,7 +1918,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16375063" y="3802063"/>
+          <a:off x="13993813" y="3810000"/>
           <a:ext cx="3133725" cy="1266825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1925,16 +1930,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>55563</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3960813</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>476250</xdr:rowOff>
+      <xdr:rowOff>523875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1957,7 +1962,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16375063" y="5167313"/>
+          <a:off x="13771563" y="5214938"/>
           <a:ext cx="3905250" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1969,16 +1974,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>214314</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>7937</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>365125</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2833689</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>1152525</xdr:rowOff>
+      <xdr:rowOff>1160462</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2001,7 +2006,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16375063" y="5794375"/>
+          <a:off x="13930314" y="5802312"/>
           <a:ext cx="2619375" cy="1152525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2013,16 +2018,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>39688</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>55563</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>450850</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2744788</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>1000125</xdr:rowOff>
+      <xdr:rowOff>1055688</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2045,7 +2050,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16375063" y="7024688"/>
+          <a:off x="13755688" y="8913813"/>
           <a:ext cx="2705100" cy="1000125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2057,16 +2062,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>79376</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>55562</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>384175</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>1066800</xdr:rowOff>
+      <xdr:rowOff>1122362</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2089,7 +2094,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16375063" y="8104188"/>
+          <a:off x="13795376" y="10445750"/>
           <a:ext cx="5114925" cy="1066800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2101,16 +2106,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>63499</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>822325</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>488949</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>476250</xdr:rowOff>
+      <xdr:rowOff>619125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2133,7 +2138,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16375063" y="9231313"/>
+          <a:off x="13779499" y="12065000"/>
           <a:ext cx="5553075" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2145,16 +2150,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>563563</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>2133600</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>68262</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2697163</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>695325</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2177,7 +2182,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16375063" y="9858375"/>
+          <a:off x="14279563" y="9858375"/>
           <a:ext cx="2133600" cy="695325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2189,16 +2194,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>269875</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>87312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>225425</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>103188</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3575050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1516062</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2221,7 +2226,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16375063" y="10485438"/>
+          <a:off x="13985875" y="14327187"/>
           <a:ext cx="3305175" cy="1428750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2262,7 +2267,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2270,6 +2275,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2303,7 +2322,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2311,6 +2330,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2344,7 +2377,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2352,6 +2385,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2385,7 +2432,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2393,6 +2440,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2426,7 +2487,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2434,6 +2495,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2467,7 +2542,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2475,6 +2550,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2508,7 +2597,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2516,6 +2605,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2852,8 +2955,8 @@
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2867,7 +2970,7 @@
     <col min="7" max="7" width="20.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="28.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="34.875" style="15" customWidth="1"/>
+    <col min="10" max="10" width="67.25" style="15" customWidth="1"/>
     <col min="11" max="11" width="29.625" style="15" customWidth="1"/>
     <col min="12" max="12" width="20.375" style="2" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="2" hidden="1" customWidth="1"/>
@@ -2899,14 +3002,14 @@
       <c r="B2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="F2" s="77" t="s">
+      <c r="D2" s="86"/>
+      <c r="F2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="78"/>
+      <c r="G2" s="79"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="14"/>
@@ -2930,12 +3033,12 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="86">
+      <c r="C3" s="87">
         <v>11</v>
       </c>
-      <c r="D3" s="87"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="80"/>
+      <c r="D3" s="88"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="81"/>
       <c r="H3" s="58"/>
       <c r="I3" s="38"/>
       <c r="J3" s="14"/>
@@ -2959,10 +3062,10 @@
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="87" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="87"/>
+      <c r="D4" s="88"/>
       <c r="E4" s="5"/>
       <c r="F4" s="37" t="s">
         <v>55</v>
@@ -2991,8 +3094,8 @@
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
       <c r="E5" s="5"/>
       <c r="F5" s="37" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -3076,12 +3179,12 @@
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="81" t="s">
+      <c r="F8" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="84"/>
       <c r="J8" s="16"/>
       <c r="K8" s="11"/>
       <c r="M8" s="2" t="str">
@@ -3137,7 +3240,7 @@
         <v>M10B</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="11" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="11" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
@@ -3171,7 +3274,7 @@
         <f ca="1">IF(OR($B10&lt;&gt;"",$J10&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J10" s="108" t="s">
+      <c r="J10" s="77" t="s">
         <v>191</v>
       </c>
       <c r="K10" s="64"/>
@@ -3180,7 +3283,7 @@
         <v>M12D</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="11" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="11" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="str">
         <f t="shared" ref="A11:A18" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
         <v>IMG02</v>
@@ -3223,7 +3326,7 @@
         <v>M101</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="11" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="11" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG03</v>
@@ -3266,7 +3369,7 @@
         <v>Diaporama F1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="11" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="11" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG04</v>
@@ -3309,7 +3412,7 @@
         <v>F4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="11" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="11" customFormat="1" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG05</v>
@@ -3352,7 +3455,7 @@
         <v>F6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="11" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="11" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG06</v>
@@ -3395,7 +3498,7 @@
         <v>F6B</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" s="11" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG07</v>
@@ -3438,7 +3541,7 @@
         <v>F7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG08</v>
@@ -3481,7 +3584,7 @@
         <v>F7B</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="11" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG09</v>
@@ -3524,7 +3627,7 @@
         <v>F8</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="11" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" s="11" customFormat="1" ht="136.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="str">
         <f t="shared" ref="A19:A50" si="6">IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
         <v>IMG10</v>
@@ -6417,25 +6520,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="94"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="95"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="31"/>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="98"/>
       <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -6443,11 +6546,11 @@
         <v>43</v>
       </c>
       <c r="B3" s="31"/>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="104"/>
       <c r="F3" s="32"/>
       <c r="H3" s="22" t="s">
         <v>18</v>
@@ -6498,11 +6601,11 @@
       <c r="C5" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="104" t="str">
+      <c r="D5" s="105" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="105"/>
+      <c r="E5" s="106"/>
       <c r="F5" s="32"/>
       <c r="H5" s="22" t="s">
         <v>22</v>
@@ -6547,12 +6650,12 @@
       <c r="C7" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="90" t="str">
+      <c r="D7" s="91" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="90"/>
-      <c r="F7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="92"/>
       <c r="H7" s="22" t="s">
         <v>24</v>
       </c>
@@ -6646,14 +6749,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="92" t="s">
+      <c r="A13" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="94"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="95"/>
       <c r="I13" s="22" t="s">
         <v>33</v>
       </c>
@@ -6686,12 +6789,12 @@
         <v>46</v>
       </c>
       <c r="B15" s="31"/>
-      <c r="C15" s="95" t="s">
+      <c r="C15" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="98"/>
       <c r="J15" s="22">
         <v>12</v>
       </c>
@@ -6731,12 +6834,12 @@
       <c r="C17" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="98" t="str">
+      <c r="D17" s="99" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="99"/>
-      <c r="F17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="101"/>
       <c r="J17" s="22">
         <v>14</v>
       </c>
@@ -6752,12 +6855,12 @@
       <c r="C18" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="90" t="str">
+      <c r="D18" s="91" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="90"/>
-      <c r="F18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="92"/>
       <c r="J18" s="22">
         <v>15</v>
       </c>
@@ -7148,40 +7251,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="108" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="107" t="s">
+      <c r="E1" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="107" t="s">
+      <c r="F1" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="107" t="s">
+      <c r="G1" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="106" t="s">
+      <c r="H1" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="106"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
       <c r="H2" s="39" t="s">
         <v>65</v>
       </c>
